--- a/900 - documenti/amco panel dei controlli.xlsx
+++ b/900 - documenti/amco panel dei controlli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="2230" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-180" yWindow="2230" windowWidth="19380" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Dizionario controlli" sheetId="1" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="876">
   <si>
     <t>ID</t>
   </si>
@@ -1892,12 +1892,6 @@
     <t>A.13.5 Nel file Hexe è da eliminare. Splittare nel file Hexe A.14.1 con A.13.5 e A.13.51. Controllo attualmente verifica che i des_stato_b3 è valorizzato e solo su questi controlla la data di ingresso</t>
   </si>
   <si>
-    <t xml:space="preserve">stato_debitore - dta_stato_debitore </t>
-  </si>
-  <si>
-    <t>fx_dta_status_missing</t>
-  </si>
-  <si>
     <t>stato_debitore is not null and (dta_stato_debitore Is null)</t>
   </si>
   <si>
@@ -2373,9 +2367,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cambiare implentazione dovuta a cambio di regola </t>
-  </si>
-  <si>
-    <t>imp_vendita_asta</t>
   </si>
   <si>
     <t>importo vendita asta is not null</t>
@@ -3475,9 +3466,6 @@
     <t>P.4.1</t>
   </si>
   <si>
-    <t>imp_valore_mkt</t>
-  </si>
-  <si>
     <t>imp_valore_mkt is not null</t>
   </si>
   <si>
@@ -4026,34 +4014,10 @@
     <t>Fido ha un aggancio con la raccordo esposizioni da qui verifica se il cod_rapporto in esso contenuto ha un aggancio con la rapporti</t>
   </si>
   <si>
-    <t xml:space="preserve"> flglkp_f_1_2</t>
-  </si>
-  <si>
-    <t>if #flg_f_fido# = 'Y' And #flglkp_f_1_1# = 'Y' And #flg_fido_attivo#='Y'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if #flg_f_asta# = 'Y' And #des_tipo_vendita# Not in ('LOTTO VENDUTO O AGGIUDICATO','VENDITA CONSOLIDATA') and #imp_vendita_asta# not in (.,0) </t>
-  </si>
-  <si>
-    <t>imp_base_ultimaasta - imp_valore_ctu</t>
-  </si>
-  <si>
     <t>è richiesto un aggancio con le Perizie da cui prelevare il valore CTU</t>
   </si>
   <si>
-    <t>imp_vendita_asta - imp_valore_ctu</t>
-  </si>
-  <si>
     <t>fx_check_impasta_ctu</t>
-  </si>
-  <si>
-    <t>flglkp_f_1_3</t>
-  </si>
-  <si>
-    <t>if #flg_f_garanzia# = 'Y' And #status_gara_derived#='VALIDA' And #flglkp_g_1_5# = 'Y'</t>
-  </si>
-  <si>
-    <t>flgLkp_g_1_6</t>
   </si>
   <si>
     <t>fx_check_flg_lookup</t>
@@ -4149,15 +4113,9 @@
     <t>Codice Immobile (collateral) non censito eni Lotti</t>
   </si>
   <si>
-    <t>if #flg_f_lotto#='Y'</t>
-  </si>
-  <si>
     <t>Lotto non agganciato ad Immobile</t>
   </si>
   <si>
-    <t>flgLkp_L_1_1</t>
-  </si>
-  <si>
     <t>flgLkp_P_1_1</t>
   </si>
   <si>
@@ -4180,12 +4138,6 @@
   </si>
   <si>
     <t>if  #FLG_F_RAPPORTO# = 'Y' And #FLGLKP_R_1_4# = 'Y'</t>
-  </si>
-  <si>
-    <t>if #flg_f_collateral# = 'Y' And #flgLKP_GC_1_1#='Y'</t>
-  </si>
-  <si>
-    <t>flgLkp_GC_1_2</t>
   </si>
   <si>
     <t>Codice collateral è nella raccordo ma la garanzia non è nella tabella Garanzie</t>
@@ -4212,7 +4164,58 @@
     <t>if #flg_f_asta# = 'Y' And not missing(#dta_ultima_asta#)</t>
   </si>
   <si>
-    <t>if #flg_f_asta#='Y' And #flgLkp_as_1_3# = 'Y'</t>
+    <t>if #flg_f_garanzia# = 'Y' And #status_gara_derived#='VALIDA'</t>
+  </si>
+  <si>
+    <t>dta_stato_debitore</t>
+  </si>
+  <si>
+    <t>fx_check_decode_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if #flg_f_asta# = 'Y' and #imp_vendita_asta# not in (.,0) </t>
+  </si>
+  <si>
+    <t>fx_check_tipo_vendita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if #flg_f_subcoll#='Y' And #flgLkp_IA_1_2# = 'Y' </t>
+  </si>
+  <si>
+    <t>flgLkp_g_1_5 - flgLkp_g_1_6</t>
+  </si>
+  <si>
+    <t>fx_check_flg_lookup_comb</t>
+  </si>
+  <si>
+    <t>des_stato</t>
+  </si>
+  <si>
+    <t>flgLkp_GC_1_2 - flgLKP_GC_1_1</t>
+  </si>
+  <si>
+    <t>if #flg_f_collateral# = 'Y'</t>
+  </si>
+  <si>
+    <t>cod_tipo - imp_base_ultimaasta - imp_valore_ctu</t>
+  </si>
+  <si>
+    <t>cod_tipo - imp_vendita_asta - imp_valore_ctu</t>
+  </si>
+  <si>
+    <t>if #flg_f_fido# = 'Y' And #flg_fido_attivo#='Y'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flglkp_f_1_1 - flglkp_f_1_2 </t>
+  </si>
+  <si>
+    <t>fx_check_flg_fido_rapp</t>
+  </si>
+  <si>
+    <t>flglkp_f_1_2  - flglkp_f_1_3</t>
+  </si>
+  <si>
+    <t>if #flg_f_perizia#='Y'</t>
   </si>
 </sst>
 </file>
@@ -15840,7 +15843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15851,8 +15854,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y62" sqref="Y62:Y63"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15877,7 +15880,7 @@
     <col min="22" max="22" width="15.453125" customWidth="1"/>
     <col min="24" max="24" width="12.26953125" customWidth="1"/>
     <col min="25" max="25" width="43.90625" customWidth="1"/>
-    <col min="26" max="26" width="22.54296875" customWidth="1"/>
+    <col min="26" max="26" width="28.54296875" customWidth="1"/>
     <col min="27" max="27" width="47.1796875" customWidth="1"/>
     <col min="28" max="28" width="45.81640625" customWidth="1"/>
     <col min="29" max="29" width="12" customWidth="1"/>
@@ -15917,7 +15920,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>10</v>
@@ -15950,7 +15953,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="W1" s="42" t="s">
         <v>20</v>
@@ -15974,10 +15977,10 @@
         <v>26</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AE1" s="42" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16360,7 +16363,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -16406,22 +16409,22 @@
         <v>62</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="AC8" s="6">
         <v>44166</v>
@@ -16822,8 +16825,8 @@
       <c r="Z13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>85</v>
+      <c r="AA13" s="24" t="s">
+        <v>860</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>100</v>
@@ -17177,14 +17180,14 @@
       <c r="Y17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="AC17" s="6">
         <v>44166</v>
@@ -17204,10 +17207,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>72</v>
@@ -17216,7 +17219,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>33</v>
@@ -17239,7 +17242,7 @@
         <v>401768</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -17266,13 +17269,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>30</v>
@@ -17281,7 +17284,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>33</v>
@@ -17332,10 +17335,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>30</v>
@@ -17344,7 +17347,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>33</v>
@@ -17395,10 +17398,10 @@
         <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>30</v>
@@ -17407,7 +17410,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>33</v>
@@ -17458,10 +17461,10 @@
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
@@ -17470,7 +17473,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>33</v>
@@ -17518,22 +17521,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>33</v>
@@ -17557,7 +17560,7 @@
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -17583,22 +17586,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>33</v>
@@ -17622,7 +17625,7 @@
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -17648,22 +17651,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>33</v>
@@ -17711,22 +17714,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>33</v>
@@ -17776,22 +17779,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>33</v>
@@ -17839,22 +17842,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>33</v>
@@ -17902,22 +17905,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>33</v>
@@ -17941,7 +17944,7 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -17967,22 +17970,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>33</v>
@@ -18033,10 +18036,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>126</v>
@@ -18045,7 +18048,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>33</v>
@@ -18096,10 +18099,10 @@
         <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>89</v>
@@ -18108,7 +18111,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>33</v>
@@ -18159,19 +18162,19 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>33</v>
@@ -18222,10 +18225,10 @@
         <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>30</v>
@@ -18234,7 +18237,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>33</v>
@@ -18282,13 +18285,13 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>49</v>
@@ -18297,7 +18300,7 @@
         <v>39</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>33</v>
@@ -18321,7 +18324,7 @@
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -18347,13 +18350,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>49</v>
@@ -18362,7 +18365,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>33</v>
@@ -18386,7 +18389,7 @@
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -18415,17 +18418,17 @@
         <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>33</v>
@@ -18476,17 +18479,17 @@
         <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>33</v>
@@ -18537,19 +18540,19 @@
         <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>33</v>
@@ -18600,19 +18603,19 @@
         <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>33</v>
@@ -18663,19 +18666,19 @@
         <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>33</v>
@@ -18699,7 +18702,7 @@
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -18728,19 +18731,19 @@
         <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>33</v>
@@ -18791,19 +18794,19 @@
         <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>33</v>
@@ -18854,19 +18857,19 @@
         <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>33</v>
@@ -18917,19 +18920,19 @@
         <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>33</v>
@@ -18980,10 +18983,10 @@
         <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>126</v>
@@ -18992,7 +18995,7 @@
         <v>39</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>128</v>
@@ -19032,7 +19035,7 @@
         <v>BI/CR</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>62</v>
@@ -19050,10 +19053,10 @@
         <v>114</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC46" s="6">
         <v>44166</v>
@@ -19062,7 +19065,7 @@
         <v>60</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="50" hidden="1" x14ac:dyDescent="0.35">
@@ -19073,19 +19076,19 @@
         <v>69</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>34</v>
@@ -19094,7 +19097,7 @@
         <v>34</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19112,7 +19115,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>59</v>
@@ -19140,13 +19143,13 @@
         <v>83</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC47" s="6">
         <v>44166</v>
@@ -19161,22 +19164,22 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>33</v>
@@ -19200,7 +19203,7 @@
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -19229,10 +19232,10 @@
         <v>69</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>30</v>
@@ -19241,7 +19244,7 @@
         <v>39</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>128</v>
@@ -19268,7 +19271,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>60</v>
@@ -19293,16 +19296,16 @@
         <v>82</v>
       </c>
       <c r="Y49" s="24" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC49" s="6">
         <v>44166</v>
@@ -19320,10 +19323,10 @@
         <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>30</v>
@@ -19332,7 +19335,7 @@
         <v>39</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>128</v>
@@ -19359,7 +19362,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>60</v>
@@ -19384,16 +19387,16 @@
         <v>82</v>
       </c>
       <c r="Y50" s="24" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC50" s="6">
         <v>44166</v>
@@ -19411,10 +19414,10 @@
         <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>30</v>
@@ -19423,7 +19426,7 @@
         <v>39</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>34</v>
@@ -19450,7 +19453,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>60</v>
@@ -19475,16 +19478,16 @@
         <v>82</v>
       </c>
       <c r="Y51" s="24" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="Z51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB51" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="AC51" s="6">
         <v>44166</v>
@@ -19493,7 +19496,7 @@
         <v>60</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19504,10 +19507,10 @@
         <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>30</v>
@@ -19516,7 +19519,7 @@
         <v>39</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>33</v>
@@ -19567,10 +19570,10 @@
         <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>30</v>
@@ -19579,7 +19582,7 @@
         <v>39</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>33</v>
@@ -19603,7 +19606,7 @@
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -19632,10 +19635,10 @@
         <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>30</v>
@@ -19644,7 +19647,7 @@
         <v>39</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>33</v>
@@ -19695,10 +19698,10 @@
         <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>126</v>
@@ -19707,7 +19710,7 @@
         <v>39</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>33</v>
@@ -19750,7 +19753,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>126</v>
       </c>
@@ -19758,19 +19761,19 @@
         <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>112</v>
@@ -19797,7 +19800,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>59</v>
@@ -19816,22 +19819,22 @@
         <v>62</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X56" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y56" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z56" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="Y56" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="AA56" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AC56" s="6">
         <v>44179</v>
@@ -19840,10 +19843,10 @@
         <v>60</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>190</v>
       </c>
@@ -19851,19 +19854,19 @@
         <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>112</v>
@@ -19890,7 +19893,7 @@
       <c r="O57" s="4"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>59</v>
@@ -19909,22 +19912,22 @@
         <v>62</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y57" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="Z57" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="Y57" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="AA57" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AC57" s="6">
         <v>44179</v>
@@ -19933,10 +19936,10 @@
         <v>60</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>106</v>
       </c>
@@ -19944,10 +19947,10 @@
         <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>30</v>
@@ -19956,7 +19959,7 @@
         <v>39</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>34</v>
@@ -19983,7 +19986,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>59</v>
@@ -20002,22 +20005,22 @@
         <v>62</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y58" s="24" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>85</v>
+        <v>866</v>
+      </c>
+      <c r="AA58" s="24" t="s">
+        <v>862</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC58" s="6">
         <v>44179</v>
@@ -20035,10 +20038,10 @@
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>30</v>
@@ -20047,7 +20050,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>33</v>
@@ -20071,7 +20074,7 @@
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -20100,19 +20103,19 @@
         <v>51</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>33</v>
@@ -20163,10 +20166,10 @@
         <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>30</v>
@@ -20175,7 +20178,7 @@
         <v>39</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>33</v>
@@ -20226,19 +20229,19 @@
         <v>51</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>128</v>
@@ -20265,7 +20268,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>59</v>
@@ -20282,19 +20285,19 @@
         <v>62</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y62" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="Z62" s="44" t="s">
-        <v>833</v>
+        <v>863</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="AA62" s="24" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" s="6">
@@ -20304,7 +20307,7 @@
         <v>60</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="21" x14ac:dyDescent="0.35">
@@ -20315,19 +20318,19 @@
         <v>51</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>128</v>
@@ -20354,7 +20357,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>59</v>
@@ -20371,19 +20374,19 @@
         <v>62</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y63" s="24" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="AA63" s="24" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" s="6">
@@ -20393,10 +20396,10 @@
         <v>60</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>92</v>
       </c>
@@ -20404,10 +20407,10 @@
         <v>51</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>30</v>
@@ -20416,7 +20419,7 @@
         <v>39</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>34</v>
@@ -20443,7 +20446,7 @@
       <c r="O64" s="4"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>59</v>
@@ -20462,22 +20465,22 @@
         <v>62</v>
       </c>
       <c r="W64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y64" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="X64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="Z64" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AC64" s="6">
         <v>44181</v>
@@ -20495,10 +20498,10 @@
         <v>51</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>30</v>
@@ -20507,7 +20510,7 @@
         <v>39</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>33</v>
@@ -20555,10 +20558,10 @@
         <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4" t="s">
@@ -20568,7 +20571,7 @@
         <v>39</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>33</v>
@@ -20592,7 +20595,7 @@
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -20618,20 +20621,20 @@
         <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>33</v>
@@ -20655,7 +20658,7 @@
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -20681,20 +20684,20 @@
         <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>33</v>
@@ -20718,7 +20721,7 @@
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -20744,20 +20747,20 @@
         <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>33</v>
@@ -20781,7 +20784,7 @@
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -20807,20 +20810,20 @@
         <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>33</v>
@@ -20844,7 +20847,7 @@
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -20870,10 +20873,10 @@
         <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4" t="s">
@@ -20883,7 +20886,7 @@
         <v>39</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>33</v>
@@ -20931,20 +20934,20 @@
         <v>60</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>33</v>
@@ -20994,20 +20997,20 @@
         <v>61</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>33</v>
@@ -21055,20 +21058,20 @@
         <v>62</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>33</v>
@@ -21121,7 +21124,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
@@ -21131,7 +21134,7 @@
         <v>39</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>33</v>
@@ -21155,7 +21158,7 @@
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -21184,7 +21187,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="4" t="s">
@@ -21194,7 +21197,7 @@
         <v>39</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>33</v>
@@ -21245,7 +21248,7 @@
         <v>69</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="4" t="s">
@@ -21255,7 +21258,7 @@
         <v>39</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>33</v>
@@ -21303,13 +21306,13 @@
         <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>30</v>
@@ -21318,7 +21321,7 @@
         <v>39</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>33</v>
@@ -21366,13 +21369,13 @@
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>30</v>
@@ -21381,7 +21384,7 @@
         <v>39</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>33</v>
@@ -21429,13 +21432,13 @@
         <v>51</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>30</v>
@@ -21444,7 +21447,7 @@
         <v>39</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>33</v>
@@ -21492,13 +21495,13 @@
         <v>52</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>30</v>
@@ -21507,7 +21510,7 @@
         <v>39</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>33</v>
@@ -21555,10 +21558,10 @@
         <v>56</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4" t="s">
@@ -21568,7 +21571,7 @@
         <v>39</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>33</v>
@@ -21592,7 +21595,7 @@
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
@@ -21618,10 +21621,10 @@
         <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
@@ -21631,7 +21634,7 @@
         <v>39</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>33</v>
@@ -21655,7 +21658,7 @@
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
@@ -21684,7 +21687,7 @@
         <v>36</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4" t="s">
@@ -21694,7 +21697,7 @@
         <v>39</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>33</v>
@@ -21745,10 +21748,10 @@
         <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>30</v>
@@ -21757,7 +21760,7 @@
         <v>39</v>
       </c>
       <c r="G85" s="48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>34</v>
@@ -21784,7 +21787,7 @@
       <c r="O85" s="4"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>59</v>
@@ -21797,28 +21800,28 @@
         <v>CR</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y85" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="Z85" s="51" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="AA85" s="50" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AC85" s="6">
         <v>44167</v>
@@ -21827,7 +21830,7 @@
         <v>60</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="50" hidden="1" x14ac:dyDescent="0.35">
@@ -21838,10 +21841,10 @@
         <v>36</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>30</v>
@@ -21850,7 +21853,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>34</v>
@@ -21876,10 +21879,10 @@
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>60</v>
@@ -21892,28 +21895,28 @@
         <v>BI</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y86" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="Z86" s="24" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="AA86" s="50" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AC86" s="6">
         <v>44167</v>
@@ -21922,7 +21925,7 @@
         <v>60</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="40" hidden="1" x14ac:dyDescent="0.35">
@@ -21933,10 +21936,10 @@
         <v>36</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>30</v>
@@ -21945,7 +21948,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>33</v>
@@ -21969,7 +21972,7 @@
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
@@ -21998,7 +22001,7 @@
         <v>36</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="4" t="s">
@@ -22008,7 +22011,7 @@
         <v>39</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>33</v>
@@ -22059,7 +22062,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="4" t="s">
@@ -22069,7 +22072,7 @@
         <v>39</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>33</v>
@@ -22120,17 +22123,17 @@
         <v>36</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>33</v>
@@ -22181,10 +22184,10 @@
         <v>36</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>30</v>
@@ -22193,7 +22196,7 @@
         <v>39</v>
       </c>
       <c r="G91" s="48" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>34</v>
@@ -22220,7 +22223,7 @@
       <c r="O91" s="4"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>59</v>
@@ -22233,28 +22236,28 @@
         <v>OK</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AA91" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AC91" s="6">
         <v>44175</v>
@@ -22263,7 +22266,7 @@
         <v>60</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
@@ -22274,10 +22277,10 @@
         <v>36</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>49</v>
@@ -22286,7 +22289,7 @@
         <v>39</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>33</v>
@@ -22337,10 +22340,10 @@
         <v>36</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>30</v>
@@ -22349,7 +22352,7 @@
         <v>39</v>
       </c>
       <c r="G93" s="48" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>34</v>
@@ -22376,7 +22379,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>59</v>
@@ -22401,16 +22404,16 @@
         <v>64</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z93" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AC93" s="6">
         <v>44166</v>
@@ -22428,10 +22431,10 @@
         <v>36</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>30</v>
@@ -22440,7 +22443,7 @@
         <v>39</v>
       </c>
       <c r="G94" s="48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>34</v>
@@ -22467,7 +22470,7 @@
       <c r="O94" s="4"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>60</v>
@@ -22492,16 +22495,16 @@
         <v>64</v>
       </c>
       <c r="Y94" s="24" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="Z94" s="24" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="AA94" s="50" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC94" s="6">
         <v>44167</v>
@@ -22510,7 +22513,7 @@
         <v>60</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -22521,10 +22524,10 @@
         <v>36</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>30</v>
@@ -22533,7 +22536,7 @@
         <v>39</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>33</v>
@@ -22557,7 +22560,7 @@
       </c>
       <c r="O95" s="4"/>
       <c r="P95" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
@@ -22586,15 +22589,15 @@
         <v>36</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
       <c r="G96" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>34</v>
@@ -22621,7 +22624,7 @@
       <c r="O96" s="4"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>59</v>
@@ -22634,7 +22637,7 @@
         <v>CR</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>62</v>
@@ -22646,16 +22649,16 @@
         <v>64</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z96" s="24" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="AA96" s="51" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AC96" s="6">
         <v>44181</v>
@@ -22664,7 +22667,7 @@
         <v>60</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
@@ -22675,10 +22678,10 @@
         <v>36</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>30</v>
@@ -22687,7 +22690,7 @@
         <v>39</v>
       </c>
       <c r="G97" s="48" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>34</v>
@@ -22714,7 +22717,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>59</v>
@@ -22727,7 +22730,7 @@
         <v>OK</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>62</v>
@@ -22739,16 +22742,16 @@
         <v>64</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AA97" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AC97" s="6">
         <v>44166</v>
@@ -22766,10 +22769,10 @@
         <v>36</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>30</v>
@@ -22778,7 +22781,7 @@
         <v>39</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>33</v>
@@ -22829,19 +22832,19 @@
         <v>36</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>33</v>
@@ -22892,10 +22895,10 @@
         <v>36</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
@@ -22904,7 +22907,7 @@
         <v>39</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>33</v>
@@ -22955,10 +22958,10 @@
         <v>36</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
@@ -22967,7 +22970,7 @@
         <v>39</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>33</v>
@@ -22991,7 +22994,7 @@
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
@@ -23020,10 +23023,10 @@
         <v>36</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>126</v>
@@ -23032,7 +23035,7 @@
         <v>39</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>33</v>
@@ -23083,10 +23086,10 @@
         <v>36</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
@@ -23095,7 +23098,7 @@
         <v>39</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>33</v>
@@ -23139,7 +23142,7 @@
         <v>33</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -23150,7 +23153,7 @@
         <v>36</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4" t="s">
@@ -23160,7 +23163,7 @@
         <v>39</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>33</v>
@@ -23211,10 +23214,10 @@
         <v>55</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
@@ -23223,7 +23226,7 @@
         <v>39</v>
       </c>
       <c r="G105" s="48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>34</v>
@@ -23249,10 +23252,10 @@
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q105" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>59</v>
@@ -23277,16 +23280,16 @@
         <v>64</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="AA105" s="24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AC105" s="6">
         <v>44166</v>
@@ -23295,7 +23298,7 @@
         <v>60</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.35">
@@ -23306,19 +23309,19 @@
         <v>55</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G106" s="48" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>34</v>
@@ -23345,7 +23348,7 @@
       <c r="O106" s="4"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>59</v>
@@ -23370,16 +23373,16 @@
         <v>64</v>
       </c>
       <c r="Y106" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA106" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB106" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="Z106" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA106" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB106" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="AC106" s="6">
         <v>44166</v>
@@ -23388,7 +23391,7 @@
         <v>60</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -23399,19 +23402,19 @@
         <v>36</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>33</v>
@@ -23462,17 +23465,17 @@
         <v>36</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>33</v>
@@ -23523,17 +23526,17 @@
         <v>36</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>33</v>
@@ -23584,17 +23587,17 @@
         <v>36</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>33</v>
@@ -23618,7 +23621,7 @@
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
@@ -23647,10 +23650,10 @@
         <v>51</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>30</v>
@@ -23659,7 +23662,7 @@
         <v>39</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>34</v>
@@ -23686,7 +23689,7 @@
       <c r="O111" s="4"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>59</v>
@@ -23705,22 +23708,22 @@
         <v>62</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y111" s="24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Z111" s="24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AA111" s="24" t="s">
         <v>85</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AC111" s="6">
         <v>44166</v>
@@ -23729,7 +23732,7 @@
         <v>60</v>
       </c>
       <c r="AE111" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -23740,7 +23743,7 @@
         <v>36</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
@@ -23748,7 +23751,7 @@
         <v>39</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>33</v>
@@ -23799,7 +23802,7 @@
         <v>36</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4" t="s">
@@ -23809,7 +23812,7 @@
         <v>39</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>33</v>
@@ -23832,7 +23835,7 @@
         <v>401768</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -23862,19 +23865,19 @@
         <v>55</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G114" s="48" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>34</v>
@@ -23901,7 +23904,7 @@
       <c r="O114" s="4"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="49" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>60</v>
@@ -23926,16 +23929,16 @@
         <v>64</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z114" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AA114" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AC114" s="6">
         <v>44166</v>
@@ -23953,19 +23956,19 @@
         <v>55</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G115" s="48" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>34</v>
@@ -23992,7 +23995,7 @@
       <c r="O115" s="4"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="49" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>60</v>
@@ -24017,16 +24020,16 @@
         <v>64</v>
       </c>
       <c r="Y115" s="24" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="Z115" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="AA115" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA115" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AC115" s="6">
         <v>44166</v>
@@ -24042,10 +24045,10 @@
         <v>55</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>30</v>
@@ -24054,7 +24057,7 @@
         <v>39</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>34</v>
@@ -24081,7 +24084,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="24" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>59</v>
@@ -24094,28 +24097,28 @@
         <v>CR</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V116" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="X116" s="24" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="Y116" s="24" t="s">
         <v>868</v>
       </c>
       <c r="Z116" s="24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AA116" s="24" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="AC116" s="6">
         <v>44187</v>
@@ -24133,7 +24136,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
@@ -24143,7 +24146,7 @@
         <v>39</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>33</v>
@@ -24194,17 +24197,17 @@
         <v>55</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>33</v>
@@ -24255,7 +24258,7 @@
         <v>55</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
@@ -24265,7 +24268,7 @@
         <v>39</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>33</v>
@@ -24316,10 +24319,10 @@
         <v>55</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>30</v>
@@ -24328,7 +24331,7 @@
         <v>39</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>34</v>
@@ -24355,7 +24358,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>59</v>
@@ -24374,22 +24377,22 @@
         <v>62</v>
       </c>
       <c r="W120" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="X120" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z120" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="X120" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y120" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Z120" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="AA120" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AC120" s="6">
         <v>44169</v>
@@ -24398,7 +24401,7 @@
         <v>60</v>
       </c>
       <c r="AE120" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -24409,7 +24412,7 @@
         <v>55</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4" t="s">
@@ -24419,7 +24422,7 @@
         <v>39</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>33</v>
@@ -24470,7 +24473,7 @@
         <v>55</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4" t="s">
@@ -24480,7 +24483,7 @@
         <v>39</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>33</v>
@@ -24531,7 +24534,7 @@
         <v>55</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4" t="s">
@@ -24541,7 +24544,7 @@
         <v>39</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>33</v>
@@ -24592,7 +24595,7 @@
         <v>55</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4" t="s">
@@ -24602,7 +24605,7 @@
         <v>39</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>33</v>
@@ -24653,7 +24656,7 @@
         <v>55</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4" t="s">
@@ -24663,7 +24666,7 @@
         <v>39</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>33</v>
@@ -24714,7 +24717,7 @@
         <v>55</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4" t="s">
@@ -24724,7 +24727,7 @@
         <v>39</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>33</v>
@@ -24775,17 +24778,17 @@
         <v>55</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>33</v>
@@ -24836,17 +24839,17 @@
         <v>55</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>33</v>
@@ -24897,17 +24900,17 @@
         <v>55</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>33</v>
@@ -24958,17 +24961,17 @@
         <v>55</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>33</v>
@@ -25019,17 +25022,17 @@
         <v>55</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>33</v>
@@ -25080,17 +25083,17 @@
         <v>55</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>33</v>
@@ -25141,17 +25144,17 @@
         <v>55</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>33</v>
@@ -25202,7 +25205,7 @@
         <v>55</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4" t="s">
@@ -25212,7 +25215,7 @@
         <v>39</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>33</v>
@@ -25263,10 +25266,10 @@
         <v>55</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>30</v>
@@ -25275,7 +25278,7 @@
         <v>39</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>34</v>
@@ -25302,7 +25305,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>59</v>
@@ -25321,22 +25324,22 @@
         <v>62</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y135" s="24" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="Z135" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AA135" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AC135" s="6">
         <v>44169</v>
@@ -25345,7 +25348,7 @@
         <v>60</v>
       </c>
       <c r="AE135" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:31" ht="50" hidden="1" x14ac:dyDescent="0.35">
@@ -25356,19 +25359,19 @@
         <v>55</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>128</v>
@@ -25395,7 +25398,7 @@
       <c r="O136" s="4"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>59</v>
@@ -25414,22 +25417,22 @@
         <v>62</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y136" s="24" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="Z136" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AA136" s="24" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AC136" s="6">
         <v>44340</v>
@@ -25438,7 +25441,7 @@
         <v>60</v>
       </c>
       <c r="AE136" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:31" s="21" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.35">
@@ -25449,19 +25452,19 @@
         <v>55</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>128</v>
@@ -25488,7 +25491,7 @@
       <c r="O137" s="4"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>59</v>
@@ -25507,22 +25510,22 @@
         <v>62</v>
       </c>
       <c r="W137" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y137" s="24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Z137" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AA137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AC137" s="6">
         <v>44169</v>
@@ -25531,7 +25534,7 @@
         <v>60</v>
       </c>
       <c r="AE137" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25542,10 +25545,10 @@
         <v>55</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E138" s="15" t="s">
         <v>30</v>
@@ -25554,7 +25557,7 @@
         <v>39</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H138" s="16" t="s">
         <v>120</v>
@@ -25581,7 +25584,7 @@
       <c r="O138" s="15"/>
       <c r="P138" s="15"/>
       <c r="Q138" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
@@ -25609,17 +25612,17 @@
         <v>55</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>33</v>
@@ -25670,15 +25673,15 @@
         <v>55</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="16"/>
       <c r="G140" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H140" s="16" t="s">
         <v>120</v>
@@ -25705,7 +25708,7 @@
       <c r="O140" s="15"/>
       <c r="P140" s="23"/>
       <c r="Q140" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
@@ -25720,29 +25723,29 @@
         <v>62</v>
       </c>
       <c r="W140" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y140" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB140" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="Z140" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="AA140" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB140" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="AC140" s="6"/>
       <c r="AD140" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE140" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.35">
@@ -25753,10 +25756,10 @@
         <v>55</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>30</v>
@@ -25765,7 +25768,7 @@
         <v>39</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>34</v>
@@ -25791,10 +25794,10 @@
       </c>
       <c r="O141" s="4"/>
       <c r="P141" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>60</v>
@@ -25813,22 +25816,22 @@
         <v>62</v>
       </c>
       <c r="W141" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Z141" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA141" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AC141" s="6">
         <v>44169</v>
@@ -25846,19 +25849,19 @@
         <v>55</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>33</v>
@@ -25883,7 +25886,7 @@
       <c r="O142" s="4"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
@@ -25911,17 +25914,17 @@
         <v>55</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>33</v>
@@ -25972,19 +25975,19 @@
         <v>55</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>34</v>
@@ -26010,10 +26013,10 @@
       </c>
       <c r="O144" s="4"/>
       <c r="P144" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>60</v>
@@ -26030,16 +26033,16 @@
       </c>
       <c r="V144" s="2"/>
       <c r="W144" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y144" s="24" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="Z144" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AA144" s="2" t="s">
         <v>85</v>
@@ -26052,7 +26055,7 @@
         <v>60</v>
       </c>
       <c r="AE144" s="2" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
@@ -26063,10 +26066,10 @@
         <v>51</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>30</v>
@@ -26075,7 +26078,7 @@
         <v>39</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>34</v>
@@ -26102,7 +26105,7 @@
       <c r="O145" s="4"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>59</v>
@@ -26121,22 +26124,22 @@
         <v>62</v>
       </c>
       <c r="W145" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y145" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="X145" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y145" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="Z145" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA145" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AC145" s="6">
         <v>44179</v>
@@ -26154,10 +26157,10 @@
         <v>51</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>30</v>
@@ -26166,7 +26169,7 @@
         <v>39</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>34</v>
@@ -26193,7 +26196,7 @@
       <c r="O146" s="4"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>59</v>
@@ -26212,22 +26215,22 @@
         <v>62</v>
       </c>
       <c r="W146" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="Y146" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="Z146" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="AA146" s="2" t="s">
-        <v>840</v>
+        <v>615</v>
+      </c>
+      <c r="Y146" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z146" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="AA146" s="24" t="s">
+        <v>828</v>
       </c>
       <c r="AB146" s="2" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="AC146" s="6">
         <v>44340</v>
@@ -26236,7 +26239,7 @@
         <v>60</v>
       </c>
       <c r="AE146" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
@@ -26247,10 +26250,10 @@
         <v>51</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>30</v>
@@ -26259,7 +26262,7 @@
         <v>39</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>34</v>
@@ -26286,7 +26289,7 @@
       <c r="O147" s="4"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>59</v>
@@ -26305,22 +26308,22 @@
         <v>62</v>
       </c>
       <c r="W147" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y147" s="24" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="Z147" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="AA147" s="2" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="AC147" s="6">
         <v>44340</v>
@@ -26335,10 +26338,10 @@
         <v>66</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="4" t="s">
@@ -26348,7 +26351,7 @@
         <v>39</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>33</v>
@@ -26396,10 +26399,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="4" t="s">
@@ -26409,7 +26412,7 @@
         <v>39</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>33</v>
@@ -26432,7 +26435,7 @@
         <v>401768</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -26459,10 +26462,10 @@
         <v>68</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="4" t="s">
@@ -26472,7 +26475,7 @@
         <v>39</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>33</v>
@@ -26520,10 +26523,10 @@
         <v>77</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4" t="s">
@@ -26533,7 +26536,7 @@
         <v>39</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>33</v>
@@ -26584,10 +26587,10 @@
         <v>55</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>30</v>
@@ -26596,7 +26599,7 @@
         <v>39</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>34</v>
@@ -26623,7 +26626,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>59</v>
@@ -26642,22 +26645,22 @@
         <v>62</v>
       </c>
       <c r="W152" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Y152" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="Z152" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AA152" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB152" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AC152" s="6">
         <v>44169</v>
@@ -26675,10 +26678,10 @@
         <v>55</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>30</v>
@@ -26687,7 +26690,7 @@
         <v>39</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>34</v>
@@ -26714,7 +26717,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="39" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>60</v>
@@ -26733,22 +26736,22 @@
         <v>62</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Y153" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="Z153" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AA153" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AC153" s="6">
         <v>44169</v>
@@ -26766,7 +26769,7 @@
         <v>55</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="4" t="s">
@@ -26776,7 +26779,7 @@
         <v>39</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>33</v>
@@ -26827,10 +26830,10 @@
         <v>55</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>30</v>
@@ -26839,7 +26842,7 @@
         <v>39</v>
       </c>
       <c r="G155" s="46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>34</v>
@@ -26866,7 +26869,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>59</v>
@@ -26885,22 +26888,22 @@
         <v>62</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Y155" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="Z155" s="2" t="s">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="AA155" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AC155" s="6">
         <v>44169</v>
@@ -26918,19 +26921,19 @@
         <v>55</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>34</v>
@@ -26957,7 +26960,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>60</v>
@@ -26970,25 +26973,25 @@
         <v>BI</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V156" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W156" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Y156" s="24" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="Z156" s="24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AA156" s="24" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" s="6">
@@ -26998,7 +27001,7 @@
         <v>60</v>
       </c>
       <c r="AE156" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
@@ -27009,7 +27012,7 @@
         <v>36</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="4" t="s">
@@ -27019,7 +27022,7 @@
         <v>31</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>33</v>
@@ -27059,23 +27062,23 @@
         <v>62</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="X157" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y157" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="Y157" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
       <c r="AC157" s="6"/>
       <c r="AD157" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AE157" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -27086,7 +27089,7 @@
         <v>66</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="4" t="s">
@@ -27096,7 +27099,7 @@
         <v>31</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>33</v>
@@ -27147,7 +27150,7 @@
         <v>66</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="4" t="s">
@@ -27157,7 +27160,7 @@
         <v>31</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>33</v>
@@ -27208,7 +27211,7 @@
         <v>66</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="4" t="s">
@@ -27218,7 +27221,7 @@
         <v>31</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>33</v>
@@ -27269,7 +27272,7 @@
         <v>66</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4" t="s">
@@ -27279,7 +27282,7 @@
         <v>31</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>33</v>
@@ -27330,17 +27333,17 @@
         <v>66</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>33</v>
@@ -27388,20 +27391,20 @@
         <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>33</v>
@@ -27441,10 +27444,10 @@
         <v>62</v>
       </c>
       <c r="W163" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="X163" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
@@ -27452,10 +27455,10 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="6"/>
       <c r="AD163" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AE163" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -27463,20 +27466,20 @@
         <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>33</v>
@@ -27524,20 +27527,20 @@
         <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>33</v>
@@ -27585,20 +27588,20 @@
         <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>33</v>
@@ -27649,17 +27652,17 @@
         <v>27</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>33</v>
@@ -27707,20 +27710,20 @@
         <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>33</v>
@@ -27768,20 +27771,20 @@
         <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>33</v>
@@ -27829,20 +27832,20 @@
         <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>33</v>
@@ -27890,20 +27893,20 @@
         <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>33</v>
@@ -27951,20 +27954,20 @@
         <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>33</v>
@@ -28012,20 +28015,20 @@
         <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>33</v>
@@ -28073,20 +28076,20 @@
         <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>33</v>
@@ -28110,7 +28113,7 @@
       </c>
       <c r="O174" s="4"/>
       <c r="P174" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
@@ -28136,20 +28139,20 @@
         <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>33</v>
@@ -28173,7 +28176,7 @@
       </c>
       <c r="O175" s="4"/>
       <c r="P175" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
@@ -28199,10 +28202,10 @@
         <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4" t="s">
@@ -28212,7 +28215,7 @@
         <v>31</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>33</v>
@@ -28235,7 +28238,7 @@
         <v>401768</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>75</v>
@@ -28264,10 +28267,10 @@
         <v>64</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4" t="s">
@@ -28277,7 +28280,7 @@
         <v>31</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>33</v>
@@ -28300,7 +28303,7 @@
         <v>401768</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>75</v>
@@ -28329,10 +28332,10 @@
         <v>65</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="4" t="s">
@@ -28342,7 +28345,7 @@
         <v>31</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>33</v>
@@ -28365,7 +28368,7 @@
         <v>401768</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>75</v>
@@ -28394,13 +28397,13 @@
         <v>18</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>30</v>
@@ -28409,7 +28412,7 @@
         <v>39</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>34</v>
@@ -28449,28 +28452,28 @@
         <v>OK</v>
       </c>
       <c r="U179" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V179" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W179" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y179" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z179" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AA179" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB179" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AC179" s="6">
         <v>44175</v>
@@ -28479,7 +28482,7 @@
         <v>60</v>
       </c>
       <c r="AE179" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="40" hidden="1" x14ac:dyDescent="0.35">
@@ -28490,15 +28493,15 @@
         <v>36</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>34</v>
@@ -28525,7 +28528,7 @@
       <c r="O180" s="4"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="R180" s="1" t="s">
         <v>59</v>
@@ -28544,22 +28547,22 @@
         <v>62</v>
       </c>
       <c r="W180" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y180" s="24" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="Z180" s="24" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="AA180" s="24" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AC180" s="6">
         <v>44180</v>
@@ -28568,7 +28571,7 @@
         <v>60</v>
       </c>
       <c r="AE180" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -28576,10 +28579,10 @@
         <v>46</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="4" t="s">
@@ -28589,7 +28592,7 @@
         <v>39</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>33</v>
@@ -28637,10 +28640,10 @@
         <v>47</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="4" t="s">
@@ -28650,7 +28653,7 @@
         <v>39</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>33</v>
@@ -28698,13 +28701,13 @@
         <v>48</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>30</v>
@@ -28713,7 +28716,7 @@
         <v>39</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H183" s="55" t="s">
         <v>34</v>
@@ -28740,7 +28743,7 @@
       <c r="O183" s="4"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="R183" s="1" t="s">
         <v>59</v>
@@ -28759,22 +28762,22 @@
         <v>62</v>
       </c>
       <c r="W183" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y183" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z183" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="AA183" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AC183" s="6">
         <v>44169</v>
@@ -28783,7 +28786,7 @@
         <v>60</v>
       </c>
       <c r="AE183" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="184" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -28791,10 +28794,10 @@
         <v>59</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="4" t="s">
@@ -28804,7 +28807,7 @@
         <v>39</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>33</v>
@@ -28855,10 +28858,10 @@
         <v>69</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>30</v>
@@ -28867,7 +28870,7 @@
         <v>39</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H185" s="55" t="s">
         <v>34</v>
@@ -28894,7 +28897,7 @@
       <c r="O185" s="4"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>59</v>
@@ -28907,28 +28910,28 @@
         <v>CR</v>
       </c>
       <c r="U185" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V185" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W185" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y185" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z185" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="AA185" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="AC185" s="6">
         <v>44169</v>
@@ -28937,7 +28940,7 @@
         <v>60</v>
       </c>
       <c r="AE185" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -28945,20 +28948,20 @@
         <v>57</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>33</v>
@@ -29006,13 +29009,13 @@
         <v>53</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>30</v>
@@ -29021,7 +29024,7 @@
         <v>31</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>34</v>
@@ -29048,7 +29051,7 @@
       <c r="O187" s="4"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="R187" s="1" t="s">
         <v>59</v>
@@ -29067,22 +29070,22 @@
         <v>62</v>
       </c>
       <c r="W187" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y187" s="24" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="Z187" s="24" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="AA187" s="24" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AC187" s="6">
         <v>44181</v>
@@ -29091,7 +29094,7 @@
         <v>60</v>
       </c>
       <c r="AE187" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
@@ -29099,13 +29102,13 @@
         <v>55</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>30</v>
@@ -29114,7 +29117,7 @@
         <v>39</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>112</v>
@@ -29141,7 +29144,7 @@
       <c r="O188" s="4"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="R188" s="1" t="s">
         <v>59</v>
@@ -29160,22 +29163,22 @@
         <v>62</v>
       </c>
       <c r="W188" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y188" s="24" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Z188" s="24" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AA188" s="24" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AB188" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AC188" s="6">
         <v>44169</v>
@@ -29184,7 +29187,7 @@
         <v>60</v>
       </c>
       <c r="AE188" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="189" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -29195,7 +29198,7 @@
         <v>36</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="4" t="s">
@@ -29205,7 +29208,7 @@
         <v>39</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>33</v>
@@ -29256,10 +29259,10 @@
         <v>36</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>49</v>
@@ -29268,7 +29271,7 @@
         <v>39</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>33</v>
@@ -29316,20 +29319,20 @@
         <v>178</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>33</v>
@@ -29377,20 +29380,20 @@
         <v>179</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>33</v>
@@ -29441,19 +29444,19 @@
         <v>36</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>34</v>
@@ -29480,7 +29483,7 @@
       <c r="O193" s="4"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="R193" s="1" t="s">
         <v>60</v>
@@ -29499,22 +29502,22 @@
         <v>62</v>
       </c>
       <c r="W193" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y193" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="Z193" s="2" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="AA193" s="24" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AC193" s="6">
         <v>44180</v>
@@ -29523,7 +29526,7 @@
         <v>60</v>
       </c>
       <c r="AE193" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="194" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
@@ -29534,19 +29537,19 @@
         <v>36</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G194" s="48" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>34</v>
@@ -29573,7 +29576,7 @@
       <c r="O194" s="4"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="R194" s="1" t="s">
         <v>59</v>
@@ -29598,16 +29601,16 @@
         <v>64</v>
       </c>
       <c r="Y194" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z194" s="24" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="AA194" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="AC194" s="6">
         <v>44166</v>
@@ -29625,19 +29628,19 @@
         <v>36</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G195" s="48" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>34</v>
@@ -29664,7 +29667,7 @@
       <c r="O195" s="4"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R195" s="1" t="s">
         <v>59</v>
@@ -29677,28 +29680,28 @@
         <v>OK</v>
       </c>
       <c r="U195" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V195" s="2" t="s">
         <v>62</v>
       </c>
       <c r="W195" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y195" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Z195" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AA195" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="AC195" s="6">
         <v>44188</v>
@@ -29707,7 +29710,7 @@
         <v>60</v>
       </c>
       <c r="AE195" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="196" spans="1:31" s="21" customFormat="1" ht="20" hidden="1" x14ac:dyDescent="0.35">
@@ -29716,13 +29719,13 @@
       </c>
       <c r="B196" s="23"/>
       <c r="C196" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D196" s="23"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="15" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>120</v>
@@ -29745,7 +29748,7 @@
       <c r="O196" s="15"/>
       <c r="P196" s="23"/>
       <c r="Q196" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="R196" s="23"/>
       <c r="S196" s="23"/>
@@ -29768,16 +29771,16 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4"/>
       <c r="F197" s="5"/>
       <c r="G197" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>34</v>
@@ -29797,7 +29800,7 @@
       <c r="O197" s="4"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
@@ -29820,16 +29823,16 @@
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>34</v>
@@ -29849,7 +29852,7 @@
       <c r="O198" s="4"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
@@ -29872,16 +29875,16 @@
       </c>
       <c r="B199" s="23"/>
       <c r="C199" s="14" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D199" s="23"/>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
       <c r="G199" s="15" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I199" s="16" t="s">
         <v>34</v>
@@ -29901,7 +29904,7 @@
       <c r="O199" s="15"/>
       <c r="P199" s="23"/>
       <c r="Q199" s="23" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -29924,16 +29927,16 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>34</v>
@@ -29953,7 +29956,7 @@
       <c r="O200" s="4"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
@@ -29976,16 +29979,16 @@
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>34</v>
@@ -30005,7 +30008,7 @@
       <c r="O201" s="4"/>
       <c r="P201" s="2"/>
       <c r="Q201" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
@@ -30028,16 +30031,16 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>34</v>
@@ -30057,7 +30060,7 @@
       <c r="O202" s="4"/>
       <c r="P202" s="2"/>
       <c r="Q202" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
@@ -30080,16 +30083,16 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="4"/>
       <c r="F203" s="5"/>
       <c r="G203" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>34</v>
@@ -30109,7 +30112,7 @@
       <c r="O203" s="4"/>
       <c r="P203" s="2"/>
       <c r="Q203" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
@@ -30128,11 +30131,11 @@
     </row>
     <row r="204" spans="1:31" s="27" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C204" s="28"/>
       <c r="D204" s="29" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F204" s="30"/>
       <c r="H204" s="30"/>
@@ -30146,11 +30149,11 @@
     </row>
     <row r="205" spans="1:31" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C205" s="34"/>
       <c r="D205" s="19" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F205" s="35"/>
       <c r="H205" s="35"/>
@@ -30170,12 +30173,8 @@
   <autoFilter ref="A1:AE205">
     <filterColumn colId="6">
       <filters>
-        <filter val="AS.1.3"/>
-        <filter val="AS.1.31"/>
-        <filter val="AS.1.4"/>
         <filter val="AS.5.4"/>
         <filter val="AS.5.5"/>
-        <filter val="AS.6.1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">

--- a/900 - documenti/amco panel dei controlli.xlsx
+++ b/900 - documenti/amco panel dei controlli.xlsx
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="883">
   <si>
     <t>ID</t>
   </si>
@@ -2904,12 +2904,6 @@
     <t>Differenza di 1 obs sul perimetro del cod_ist 93. Le implementazioni sono identiche. Controllare numeriche post implementazioni. Definire il grado da considerare</t>
   </si>
   <si>
-    <t>if  #flg_f_garanzia# = 'Y' And Upcase(Compress(#des_tipo_284#)) = "GARANZIAREALE"</t>
-  </si>
-  <si>
-    <t>num_grado_sost is null</t>
-  </si>
-  <si>
     <t>Creata la funzione che verifica la valorizzazione del grado sostanziale. In attesa di ulteriori dettagli</t>
   </si>
   <si>
@@ -2926,9 +2920,6 @@
   </si>
   <si>
     <t>Differenza di 1 obs sul perimetro del cod_ist 93. Le implementazioni sono identiche. Controllare numeriche post implementazioni</t>
-  </si>
-  <si>
-    <t>if #flg_f_garanzia# = 'Y' And Upcase(Compress(#des_tipo_284#)) = "GARANZIAREALE"</t>
   </si>
   <si>
     <t>cod_garanzia - flglkp_g_1_3</t>
@@ -3897,9 +3888,6 @@
     <t>inserito G.8.2 per allineamento con lista Hexe.  Modifiche implementazioni prendendo il massimo grado di ipoteca, in caso di + gradi</t>
   </si>
   <si>
-    <t>num_grado_ipoteca - grado_ammesso</t>
-  </si>
-  <si>
     <t>fx_grado_ipoteca_valido</t>
   </si>
   <si>
@@ -4024,12 +4012,6 @@
   </si>
   <si>
     <t>status_gara_derived</t>
-  </si>
-  <si>
-    <t>des_gravami</t>
-  </si>
-  <si>
-    <t>if  #flg_f_garanzia# = 'Y' And Upcase(Compress(#des_tipo_284#)) = "GARANZIAREALE" And #num_grado_ipoteca#&gt;1</t>
   </si>
   <si>
     <t>I.9.1</t>
@@ -4101,15 +4083,9 @@
     </r>
   </si>
   <si>
-    <t>if #flg_f_immobili# = 'Y' And #flgLkp_I_1_11#='Y' And #ndg_in_procedura_aa#&gt;&amp;anni_in_procedura.</t>
-  </si>
-  <si>
     <t>if #flg_f_cpy#='Y' And #cod_sae#  In ('614','615')</t>
   </si>
   <si>
-    <t>flgLkp_I_1_7</t>
-  </si>
-  <si>
     <t>Codice Immobile (collateral) non censito eni Lotti</t>
   </si>
   <si>
@@ -4143,21 +4119,6 @@
     <t>Codice collateral è nella raccordo ma la garanzia non è nella tabella Garanzie</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">num_grado_sost - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>grado_ammesso</t>
-    </r>
-  </si>
-  <si>
     <t>if #flg_f_asta# = 'Y' And #num_asta#&gt;=0</t>
   </si>
   <si>
@@ -4215,7 +4176,55 @@
     <t>flglkp_f_1_2  - flglkp_f_1_3</t>
   </si>
   <si>
-    <t>if #flg_f_perizia#='Y'</t>
+    <t>fx_check_imm_in_proc</t>
+  </si>
+  <si>
+    <t>cod_tipo - imp_valore_ctu - dta_ultima_val</t>
+  </si>
+  <si>
+    <t>if #flg_f_immobili# = 'Y' And #flgLkp_ip_1_3#='Y' And #maxAnniInProc#&gt;&amp;anni_in_procedura.</t>
+  </si>
+  <si>
+    <t>if  #flg_f_garanzia# = 'Y' And #tipo_garanzia_284# = 'R'</t>
+  </si>
+  <si>
+    <t>min_grado_sost - max_grado_sost - grado_ammesso</t>
+  </si>
+  <si>
+    <t>Grado non compreso tra 1 e grado ammesso</t>
+  </si>
+  <si>
+    <t>fx_grado_ipoteca_range</t>
+  </si>
+  <si>
+    <t>max_grado_ipot - grado_ammesso</t>
+  </si>
+  <si>
+    <t>if  #flg_f_garanzia# = 'Y' And #tipo_garanzia_284# = 'R' And #max_grado_ipot#&gt;1</t>
+  </si>
+  <si>
+    <t>has_gravami_miss</t>
+  </si>
+  <si>
+    <t>fx_check_grado_gravami</t>
+  </si>
+  <si>
+    <t>if #flg_f_lotto#='Y'</t>
+  </si>
+  <si>
+    <t>flgLkp_L_1_1</t>
+  </si>
+  <si>
+    <t>fx_check_value_nvalid</t>
+  </si>
+  <si>
+    <t>min_grado_ipot - imp_attuale</t>
+  </si>
+  <si>
+    <t>if #flg_f_valutazioni# = 'Y'</t>
+  </si>
+  <si>
+    <t>flgLkp_LO_1_1</t>
   </si>
 </sst>
 </file>
@@ -15854,16 +15863,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z62" sqref="Z62"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="Z137" sqref="Z137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="62.453125" style="38" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="58.08984375" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
     <col min="5" max="5" width="8.1796875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" style="37" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" customWidth="1"/>
@@ -15920,7 +15929,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>10</v>
@@ -15953,7 +15962,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="W1" s="42" t="s">
         <v>20</v>
@@ -15977,10 +15986,10 @@
         <v>26</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AE1" s="42" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16363,7 +16372,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -16409,22 +16418,22 @@
         <v>62</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AC8" s="6">
         <v>44166</v>
@@ -16826,7 +16835,7 @@
         <v>99</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>100</v>
@@ -17181,7 +17190,7 @@
         <v>83</v>
       </c>
       <c r="Z17" s="24" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="AA17" s="24" t="s">
         <v>85</v>
@@ -19296,13 +19305,13 @@
         <v>82</v>
       </c>
       <c r="Y49" s="24" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="Z49" s="2" t="s">
         <v>235</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AB49" s="2" t="s">
         <v>245</v>
@@ -19387,13 +19396,13 @@
         <v>82</v>
       </c>
       <c r="Y50" s="24" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>235</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>245</v>
@@ -19478,7 +19487,7 @@
         <v>82</v>
       </c>
       <c r="Y51" s="24" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>252</v>
@@ -19825,7 +19834,7 @@
         <v>274</v>
       </c>
       <c r="Y56" s="24" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>276</v>
@@ -19918,7 +19927,7 @@
         <v>274</v>
       </c>
       <c r="Y57" s="24" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>276</v>
@@ -20011,13 +20020,13 @@
         <v>274</v>
       </c>
       <c r="Y58" s="24" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="AA58" s="24" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="AB58" s="2" t="s">
         <v>288</v>
@@ -20221,7 +20230,7 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
     </row>
-    <row r="62" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>127</v>
       </c>
@@ -20291,13 +20300,13 @@
         <v>274</v>
       </c>
       <c r="Y62" s="24" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="AA62" s="24" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" s="6">
@@ -20307,10 +20316,10 @@
         <v>60</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>128</v>
       </c>
@@ -20380,13 +20389,13 @@
         <v>274</v>
       </c>
       <c r="Y63" s="24" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="AA63" s="24" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" s="6">
@@ -20396,10 +20405,10 @@
         <v>60</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>92</v>
       </c>
@@ -21812,13 +21821,13 @@
         <v>379</v>
       </c>
       <c r="Y85" s="24" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="Z85" s="51" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="AA85" s="50" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>380</v>
@@ -21907,16 +21916,16 @@
         <v>379</v>
       </c>
       <c r="Y86" s="24" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="Z86" s="24" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="AA86" s="50" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AC86" s="6">
         <v>44167</v>
@@ -22495,13 +22504,13 @@
         <v>64</v>
       </c>
       <c r="Y94" s="24" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="Z94" s="24" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="AA94" s="50" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>419</v>
@@ -22652,7 +22661,7 @@
         <v>412</v>
       </c>
       <c r="Z96" s="24" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AA96" s="51" t="s">
         <v>429</v>
@@ -23279,17 +23288,17 @@
       <c r="X105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y105" s="2" t="s">
-        <v>464</v>
+      <c r="Y105" s="24" t="s">
+        <v>869</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="AA105" s="24" t="s">
-        <v>788</v>
+        <v>872</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>465</v>
+        <v>871</v>
       </c>
       <c r="AC105" s="6">
         <v>44166</v>
@@ -23298,7 +23307,7 @@
         <v>60</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.35">
@@ -23309,19 +23318,19 @@
         <v>55</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G106" s="48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>34</v>
@@ -23348,7 +23357,7 @@
       <c r="O106" s="4"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>59</v>
@@ -23372,17 +23381,17 @@
       <c r="X106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y106" s="2" t="s">
+      <c r="Y106" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA106" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB106" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="Z106" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA106" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AB106" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="AC106" s="6">
         <v>44166</v>
@@ -23391,7 +23400,7 @@
         <v>60</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -23402,10 +23411,10 @@
         <v>36</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>155</v>
@@ -23414,7 +23423,7 @@
         <v>39</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>33</v>
@@ -23465,7 +23474,7 @@
         <v>36</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4" t="s">
@@ -23475,7 +23484,7 @@
         <v>39</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>33</v>
@@ -23526,7 +23535,7 @@
         <v>36</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4" t="s">
@@ -23536,7 +23545,7 @@
         <v>31</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>33</v>
@@ -23587,7 +23596,7 @@
         <v>36</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4" t="s">
@@ -23597,7 +23606,7 @@
         <v>31</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>33</v>
@@ -23621,7 +23630,7 @@
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
@@ -23642,7 +23651,7 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
     </row>
-    <row r="111" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>88</v>
       </c>
@@ -23650,10 +23659,10 @@
         <v>51</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>30</v>
@@ -23662,7 +23671,7 @@
         <v>39</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>34</v>
@@ -23689,7 +23698,7 @@
       <c r="O111" s="4"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>59</v>
@@ -23708,22 +23717,22 @@
         <v>62</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y111" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Z111" s="24" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA111" s="24" t="s">
         <v>85</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AC111" s="6">
         <v>44166</v>
@@ -23732,7 +23741,7 @@
         <v>60</v>
       </c>
       <c r="AE111" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -23743,7 +23752,7 @@
         <v>36</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
@@ -23751,7 +23760,7 @@
         <v>39</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>33</v>
@@ -23802,7 +23811,7 @@
         <v>36</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4" t="s">
@@ -23812,7 +23821,7 @@
         <v>39</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>33</v>
@@ -23835,7 +23844,7 @@
         <v>401768</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -23865,10 +23874,10 @@
         <v>55</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>155</v>
@@ -23877,7 +23886,7 @@
         <v>39</v>
       </c>
       <c r="G114" s="48" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>34</v>
@@ -23904,7 +23913,7 @@
       <c r="O114" s="4"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="49" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>60</v>
@@ -23931,14 +23940,14 @@
       <c r="Y114" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Z114" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA114" s="2" t="s">
-        <v>85</v>
+      <c r="Z114" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="AA114" s="24" t="s">
+        <v>879</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AC114" s="6">
         <v>44166</v>
@@ -23948,7 +23957,7 @@
       </c>
       <c r="AE114" s="2"/>
     </row>
-    <row r="115" spans="1:31" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>120</v>
       </c>
@@ -23956,10 +23965,10 @@
         <v>55</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>155</v>
@@ -23968,7 +23977,7 @@
         <v>39</v>
       </c>
       <c r="G115" s="48" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>34</v>
@@ -23995,7 +24004,7 @@
       <c r="O115" s="4"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="49" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>60</v>
@@ -24020,16 +24029,16 @@
         <v>64</v>
       </c>
       <c r="Y115" s="24" t="s">
-        <v>831</v>
+        <v>874</v>
       </c>
       <c r="Z115" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="AA115" s="2" t="s">
-        <v>85</v>
+        <v>875</v>
+      </c>
+      <c r="AA115" s="24" t="s">
+        <v>876</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AC115" s="6">
         <v>44166</v>
@@ -24045,10 +24054,10 @@
         <v>55</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>30</v>
@@ -24057,7 +24066,7 @@
         <v>39</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>34</v>
@@ -24084,7 +24093,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="24" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>59</v>
@@ -24103,22 +24112,22 @@
         <v>62</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="X116" s="24" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="Y116" s="24" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="Z116" s="24" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="AA116" s="24" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AC116" s="6">
         <v>44187</v>
@@ -24136,7 +24145,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
@@ -24146,7 +24155,7 @@
         <v>39</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>33</v>
@@ -24197,7 +24206,7 @@
         <v>55</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
@@ -24207,7 +24216,7 @@
         <v>39</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>33</v>
@@ -24258,7 +24267,7 @@
         <v>55</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
@@ -24268,7 +24277,7 @@
         <v>39</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>33</v>
@@ -24311,7 +24320,7 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
     </row>
-    <row r="120" spans="1:31" ht="40" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:31" ht="40" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>93</v>
       </c>
@@ -24319,10 +24328,10 @@
         <v>55</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>30</v>
@@ -24331,7 +24340,7 @@
         <v>39</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>34</v>
@@ -24358,7 +24367,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>59</v>
@@ -24377,22 +24386,22 @@
         <v>62</v>
       </c>
       <c r="W120" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="X120" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z120" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="X120" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y120" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="Z120" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="AA120" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AC120" s="6">
         <v>44169</v>
@@ -24401,7 +24410,7 @@
         <v>60</v>
       </c>
       <c r="AE120" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -24412,7 +24421,7 @@
         <v>55</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4" t="s">
@@ -24422,7 +24431,7 @@
         <v>39</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>33</v>
@@ -24473,7 +24482,7 @@
         <v>55</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4" t="s">
@@ -24483,7 +24492,7 @@
         <v>39</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>33</v>
@@ -24534,7 +24543,7 @@
         <v>55</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4" t="s">
@@ -24544,7 +24553,7 @@
         <v>39</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>33</v>
@@ -24595,7 +24604,7 @@
         <v>55</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4" t="s">
@@ -24605,7 +24614,7 @@
         <v>39</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>33</v>
@@ -24656,7 +24665,7 @@
         <v>55</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4" t="s">
@@ -24666,7 +24675,7 @@
         <v>39</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>33</v>
@@ -24717,7 +24726,7 @@
         <v>55</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4" t="s">
@@ -24727,7 +24736,7 @@
         <v>39</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>33</v>
@@ -24778,7 +24787,7 @@
         <v>55</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4" t="s">
@@ -24788,7 +24797,7 @@
         <v>39</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>33</v>
@@ -24839,7 +24848,7 @@
         <v>55</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4" t="s">
@@ -24849,7 +24858,7 @@
         <v>39</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>33</v>
@@ -24900,7 +24909,7 @@
         <v>55</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4" t="s">
@@ -24910,7 +24919,7 @@
         <v>39</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>33</v>
@@ -24961,7 +24970,7 @@
         <v>55</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4" t="s">
@@ -24971,7 +24980,7 @@
         <v>39</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>33</v>
@@ -25022,7 +25031,7 @@
         <v>55</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
@@ -25032,7 +25041,7 @@
         <v>39</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>33</v>
@@ -25083,7 +25092,7 @@
         <v>55</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
@@ -25093,7 +25102,7 @@
         <v>39</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>33</v>
@@ -25144,7 +25153,7 @@
         <v>55</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="4" t="s">
@@ -25154,7 +25163,7 @@
         <v>39</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>33</v>
@@ -25205,7 +25214,7 @@
         <v>55</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4" t="s">
@@ -25215,7 +25224,7 @@
         <v>39</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>33</v>
@@ -25258,7 +25267,7 @@
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
     </row>
-    <row r="135" spans="1:31" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:31" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>141</v>
       </c>
@@ -25266,10 +25275,10 @@
         <v>55</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>30</v>
@@ -25278,7 +25287,7 @@
         <v>39</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>34</v>
@@ -25305,7 +25314,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>59</v>
@@ -25324,22 +25333,22 @@
         <v>62</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y135" s="24" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="Z135" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA135" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AC135" s="6">
         <v>44169</v>
@@ -25348,10 +25357,10 @@
         <v>60</v>
       </c>
       <c r="AE135" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:31" ht="50" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>142</v>
       </c>
@@ -25359,10 +25368,10 @@
         <v>55</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>150</v>
@@ -25371,7 +25380,7 @@
         <v>39</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>128</v>
@@ -25398,7 +25407,7 @@
       <c r="O136" s="4"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>59</v>
@@ -25417,22 +25426,22 @@
         <v>62</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y136" s="24" t="s">
-        <v>837</v>
+        <v>579</v>
       </c>
       <c r="Z136" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA136" s="24" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AC136" s="6">
         <v>44340</v>
@@ -25441,10 +25450,10 @@
         <v>60</v>
       </c>
       <c r="AE136" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="137" spans="1:31" s="21" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:31" s="21" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>139</v>
       </c>
@@ -25452,10 +25461,10 @@
         <v>55</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>155</v>
@@ -25464,7 +25473,7 @@
         <v>39</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>128</v>
@@ -25491,7 +25500,7 @@
       <c r="O137" s="4"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>59</v>
@@ -25510,22 +25519,22 @@
         <v>62</v>
       </c>
       <c r="W137" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y137" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Z137" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AC137" s="6">
         <v>44169</v>
@@ -25534,7 +25543,7 @@
         <v>60</v>
       </c>
       <c r="AE137" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25545,10 +25554,10 @@
         <v>55</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E138" s="15" t="s">
         <v>30</v>
@@ -25557,7 +25566,7 @@
         <v>39</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H138" s="16" t="s">
         <v>120</v>
@@ -25584,7 +25593,7 @@
       <c r="O138" s="15"/>
       <c r="P138" s="15"/>
       <c r="Q138" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
@@ -25612,7 +25621,7 @@
         <v>55</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="4" t="s">
@@ -25622,7 +25631,7 @@
         <v>39</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>33</v>
@@ -25673,15 +25682,15 @@
         <v>55</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="16"/>
       <c r="G140" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H140" s="16" t="s">
         <v>120</v>
@@ -25708,7 +25717,7 @@
       <c r="O140" s="15"/>
       <c r="P140" s="23"/>
       <c r="Q140" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
@@ -25723,32 +25732,32 @@
         <v>62</v>
       </c>
       <c r="W140" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y140" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB140" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="Z140" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA140" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB140" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="AC140" s="6"/>
       <c r="AD140" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE140" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:31" ht="30" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>99</v>
       </c>
@@ -25756,10 +25765,10 @@
         <v>55</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>30</v>
@@ -25768,7 +25777,7 @@
         <v>39</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>34</v>
@@ -25794,10 +25803,10 @@
       </c>
       <c r="O141" s="4"/>
       <c r="P141" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>60</v>
@@ -25816,22 +25825,22 @@
         <v>62</v>
       </c>
       <c r="W141" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Z141" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AA141" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AC141" s="6">
         <v>44169</v>
@@ -25849,10 +25858,10 @@
         <v>55</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>150</v>
@@ -25861,7 +25870,7 @@
         <v>39</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>33</v>
@@ -25886,7 +25895,7 @@
       <c r="O142" s="4"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
@@ -25914,7 +25923,7 @@
         <v>55</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="4" t="s">
@@ -25924,7 +25933,7 @@
         <v>39</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>33</v>
@@ -25967,7 +25976,7 @@
       <c r="AD143" s="2"/>
       <c r="AE143" s="2"/>
     </row>
-    <row r="144" spans="1:31" ht="60.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:31" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -25975,10 +25984,10 @@
         <v>55</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>155</v>
@@ -25987,7 +25996,7 @@
         <v>39</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>34</v>
@@ -26013,10 +26022,10 @@
       </c>
       <c r="O144" s="4"/>
       <c r="P144" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>60</v>
@@ -26033,19 +26042,19 @@
       </c>
       <c r="V144" s="2"/>
       <c r="W144" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y144" s="24" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="Z144" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA144" s="2" t="s">
-        <v>85</v>
+        <v>867</v>
+      </c>
+      <c r="AA144" s="24" t="s">
+        <v>866</v>
       </c>
       <c r="AB144" s="2"/>
       <c r="AC144" s="6">
@@ -26055,7 +26064,7 @@
         <v>60</v>
       </c>
       <c r="AE144" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
@@ -26066,10 +26075,10 @@
         <v>51</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>30</v>
@@ -26078,7 +26087,7 @@
         <v>39</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>34</v>
@@ -26105,7 +26114,7 @@
       <c r="O145" s="4"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>59</v>
@@ -26133,7 +26142,7 @@
         <v>275</v>
       </c>
       <c r="Z145" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AA145" s="2" t="s">
         <v>85</v>
@@ -26157,10 +26166,10 @@
         <v>51</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>30</v>
@@ -26169,7 +26178,7 @@
         <v>39</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>34</v>
@@ -26196,7 +26205,7 @@
       <c r="O146" s="4"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>59</v>
@@ -26215,22 +26224,22 @@
         <v>62</v>
       </c>
       <c r="W146" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Y146" s="24" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="Z146" s="24" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="AA146" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB146" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AC146" s="6">
         <v>44340</v>
@@ -26239,10 +26248,10 @@
         <v>60</v>
       </c>
       <c r="AE146" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>90</v>
       </c>
@@ -26250,10 +26259,10 @@
         <v>51</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>30</v>
@@ -26262,7 +26271,7 @@
         <v>39</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>34</v>
@@ -26289,7 +26298,7 @@
       <c r="O147" s="4"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>59</v>
@@ -26308,22 +26317,22 @@
         <v>62</v>
       </c>
       <c r="W147" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y147" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="Z147" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="AA147" s="2" t="s">
-        <v>828</v>
+        <v>881</v>
+      </c>
+      <c r="Z147" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="AA147" s="24" t="s">
+        <v>824</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AC147" s="6">
         <v>44340</v>
@@ -26338,10 +26347,10 @@
         <v>66</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="4" t="s">
@@ -26351,7 +26360,7 @@
         <v>39</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>33</v>
@@ -26399,10 +26408,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="4" t="s">
@@ -26412,7 +26421,7 @@
         <v>39</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>33</v>
@@ -26435,7 +26444,7 @@
         <v>401768</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -26462,10 +26471,10 @@
         <v>68</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="4" t="s">
@@ -26475,7 +26484,7 @@
         <v>39</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>33</v>
@@ -26523,10 +26532,10 @@
         <v>77</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4" t="s">
@@ -26536,7 +26545,7 @@
         <v>39</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>33</v>
@@ -26587,10 +26596,10 @@
         <v>55</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>30</v>
@@ -26599,7 +26608,7 @@
         <v>39</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>34</v>
@@ -26626,7 +26635,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>59</v>
@@ -26645,22 +26654,22 @@
         <v>62</v>
       </c>
       <c r="W152" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Y152" s="2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="Z152" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AA152" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB152" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AC152" s="6">
         <v>44169</v>
@@ -26678,10 +26687,10 @@
         <v>55</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>30</v>
@@ -26690,7 +26699,7 @@
         <v>39</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>34</v>
@@ -26717,7 +26726,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="39" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>60</v>
@@ -26736,22 +26745,22 @@
         <v>62</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Y153" s="2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="Z153" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA153" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AC153" s="6">
         <v>44169</v>
@@ -26769,7 +26778,7 @@
         <v>55</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="4" t="s">
@@ -26779,7 +26788,7 @@
         <v>39</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>33</v>
@@ -26830,10 +26839,10 @@
         <v>55</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>30</v>
@@ -26842,7 +26851,7 @@
         <v>39</v>
       </c>
       <c r="G155" s="46" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>34</v>
@@ -26869,7 +26878,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>59</v>
@@ -26888,22 +26897,22 @@
         <v>62</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Y155" s="2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="Z155" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA155" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AC155" s="6">
         <v>44169</v>
@@ -26921,10 +26930,10 @@
         <v>55</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>155</v>
@@ -26933,7 +26942,7 @@
         <v>31</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>34</v>
@@ -26960,7 +26969,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>60</v>
@@ -26979,19 +26988,19 @@
         <v>62</v>
       </c>
       <c r="W156" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Y156" s="24" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="Z156" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AA156" s="24" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" s="6">
@@ -27001,7 +27010,7 @@
         <v>60</v>
       </c>
       <c r="AE156" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
@@ -27012,7 +27021,7 @@
         <v>36</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="4" t="s">
@@ -27022,7 +27031,7 @@
         <v>31</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>33</v>
@@ -27062,23 +27071,23 @@
         <v>62</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Y157" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
       <c r="AC157" s="6"/>
       <c r="AD157" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AE157" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -27089,7 +27098,7 @@
         <v>66</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="4" t="s">
@@ -27099,7 +27108,7 @@
         <v>31</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>33</v>
@@ -27150,7 +27159,7 @@
         <v>66</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="4" t="s">
@@ -27160,7 +27169,7 @@
         <v>31</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>33</v>
@@ -27211,7 +27220,7 @@
         <v>66</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="4" t="s">
@@ -27221,7 +27230,7 @@
         <v>31</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>33</v>
@@ -27272,7 +27281,7 @@
         <v>66</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4" t="s">
@@ -27282,7 +27291,7 @@
         <v>31</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>33</v>
@@ -27333,7 +27342,7 @@
         <v>66</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="4" t="s">
@@ -27343,7 +27352,7 @@
         <v>31</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>33</v>
@@ -27391,10 +27400,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="4" t="s">
@@ -27404,7 +27413,7 @@
         <v>31</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>33</v>
@@ -27444,10 +27453,10 @@
         <v>62</v>
       </c>
       <c r="W163" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="X163" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
@@ -27455,10 +27464,10 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="6"/>
       <c r="AD163" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AE163" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="164" spans="1:31" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
@@ -27466,10 +27475,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="4" t="s">
@@ -27479,7 +27488,7 @@
         <v>31</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>33</v>
@@ -27527,10 +27536,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="4" t="s">
@@ -27540,7 +27549,7 @@
         <v>31</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>33</v>
@@ -27588,10 +27597,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="4" t="s">
@@ -27601,7 +27610,7 @@
         <v>31</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>33</v>
@@ -27652,7 +27661,7 @@
         <v>27</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="4" t="s">
@@ -27662,7 +27671,7 @@
         <v>31</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>33</v>
@@ -27710,10 +27719,10 @@
         <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="4" t="s">
@@ -27723,7 +27732,7 @@
         <v>31</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>33</v>
@@ -27771,10 +27780,10 @@
         <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4" t="s">
@@ -27784,7 +27793,7 @@
         <v>31</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>33</v>
@@ -27832,10 +27841,10 @@
         <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="4" t="s">
@@ -27845,7 +27854,7 @@
         <v>31</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>33</v>
@@ -27893,10 +27902,10 @@
         <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4" t="s">
@@ -27906,7 +27915,7 @@
         <v>31</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>33</v>
@@ -27954,20 +27963,20 @@
         <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>33</v>
@@ -28015,20 +28024,20 @@
         <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>33</v>
@@ -28076,20 +28085,20 @@
         <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>33</v>
@@ -28113,7 +28122,7 @@
       </c>
       <c r="O174" s="4"/>
       <c r="P174" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
@@ -28139,20 +28148,20 @@
         <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>33</v>
@@ -28176,7 +28185,7 @@
       </c>
       <c r="O175" s="4"/>
       <c r="P175" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
@@ -28202,10 +28211,10 @@
         <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4" t="s">
@@ -28215,7 +28224,7 @@
         <v>31</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>33</v>
@@ -28238,7 +28247,7 @@
         <v>401768</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>75</v>
@@ -28270,7 +28279,7 @@
         <v>344</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4" t="s">
@@ -28280,7 +28289,7 @@
         <v>31</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>33</v>
@@ -28303,7 +28312,7 @@
         <v>401768</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>75</v>
@@ -28335,7 +28344,7 @@
         <v>344</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="4" t="s">
@@ -28345,7 +28354,7 @@
         <v>31</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>33</v>
@@ -28368,7 +28377,7 @@
         <v>401768</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>75</v>
@@ -28400,10 +28409,10 @@
         <v>135</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>30</v>
@@ -28412,7 +28421,7 @@
         <v>39</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>34</v>
@@ -28458,22 +28467,22 @@
         <v>62</v>
       </c>
       <c r="W179" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="X179" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y179" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z179" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="X179" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y179" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="Z179" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="AA179" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB179" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AC179" s="6">
         <v>44175</v>
@@ -28482,7 +28491,7 @@
         <v>60</v>
       </c>
       <c r="AE179" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="40" hidden="1" x14ac:dyDescent="0.35">
@@ -28493,15 +28502,15 @@
         <v>36</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>34</v>
@@ -28528,7 +28537,7 @@
       <c r="O180" s="4"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="R180" s="1" t="s">
         <v>59</v>
@@ -28547,22 +28556,22 @@
         <v>62</v>
       </c>
       <c r="W180" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y180" s="24" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="Z180" s="24" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AA180" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AC180" s="6">
         <v>44180</v>
@@ -28571,7 +28580,7 @@
         <v>60</v>
       </c>
       <c r="AE180" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -28582,7 +28591,7 @@
         <v>318</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="4" t="s">
@@ -28592,7 +28601,7 @@
         <v>39</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>33</v>
@@ -28643,7 +28652,7 @@
         <v>318</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="4" t="s">
@@ -28653,7 +28662,7 @@
         <v>39</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>33</v>
@@ -28701,13 +28710,13 @@
         <v>48</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>30</v>
@@ -28716,7 +28725,7 @@
         <v>39</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H183" s="55" t="s">
         <v>34</v>
@@ -28743,7 +28752,7 @@
       <c r="O183" s="4"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="R183" s="1" t="s">
         <v>59</v>
@@ -28762,22 +28771,22 @@
         <v>62</v>
       </c>
       <c r="W183" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y183" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Z183" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AA183" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AC183" s="6">
         <v>44169</v>
@@ -28786,7 +28795,7 @@
         <v>60</v>
       </c>
       <c r="AE183" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="184" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -28794,10 +28803,10 @@
         <v>59</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="4" t="s">
@@ -28807,7 +28816,7 @@
         <v>39</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>33</v>
@@ -28858,10 +28867,10 @@
         <v>69</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>30</v>
@@ -28870,7 +28879,7 @@
         <v>39</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H185" s="55" t="s">
         <v>34</v>
@@ -28897,7 +28906,7 @@
       <c r="O185" s="4"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>59</v>
@@ -28916,22 +28925,22 @@
         <v>62</v>
       </c>
       <c r="W185" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y185" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Z185" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AA185" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AC185" s="6">
         <v>44169</v>
@@ -28940,7 +28949,7 @@
         <v>60</v>
       </c>
       <c r="AE185" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
@@ -28951,17 +28960,17 @@
         <v>344</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>33</v>
@@ -29009,13 +29018,13 @@
         <v>53</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>30</v>
@@ -29024,7 +29033,7 @@
         <v>31</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>34</v>
@@ -29051,7 +29060,7 @@
       <c r="O187" s="4"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="R187" s="1" t="s">
         <v>59</v>
@@ -29070,22 +29079,22 @@
         <v>62</v>
       </c>
       <c r="W187" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y187" s="24" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="Z187" s="24" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AA187" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AC187" s="6">
         <v>44181</v>
@@ -29094,10 +29103,10 @@
         <v>60</v>
       </c>
       <c r="AE187" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>55</v>
       </c>
@@ -29105,10 +29114,10 @@
         <v>344</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>30</v>
@@ -29117,7 +29126,7 @@
         <v>39</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>112</v>
@@ -29144,7 +29153,7 @@
       <c r="O188" s="4"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="R188" s="1" t="s">
         <v>59</v>
@@ -29163,22 +29172,22 @@
         <v>62</v>
       </c>
       <c r="W188" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y188" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z188" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA188" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB188" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="Z188" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA188" s="24" t="s">
-        <v>763</v>
-      </c>
-      <c r="AB188" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="AC188" s="6">
         <v>44169</v>
@@ -29187,7 +29196,7 @@
         <v>60</v>
       </c>
       <c r="AE188" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="189" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -29198,7 +29207,7 @@
         <v>36</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="4" t="s">
@@ -29208,7 +29217,7 @@
         <v>39</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>33</v>
@@ -29259,10 +29268,10 @@
         <v>36</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>49</v>
@@ -29271,7 +29280,7 @@
         <v>39</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>33</v>
@@ -29319,20 +29328,20 @@
         <v>178</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>33</v>
@@ -29380,20 +29389,20 @@
         <v>179</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>33</v>
@@ -29436,7 +29445,7 @@
       <c r="AD192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="1:31" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:31" ht="20" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -29444,10 +29453,10 @@
         <v>36</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>155</v>
@@ -29456,7 +29465,7 @@
         <v>39</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>34</v>
@@ -29483,7 +29492,7 @@
       <c r="O193" s="4"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="R193" s="1" t="s">
         <v>60</v>
@@ -29502,22 +29511,22 @@
         <v>62</v>
       </c>
       <c r="W193" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y193" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="Z193" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="AA193" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AC193" s="6">
         <v>44180</v>
@@ -29526,7 +29535,7 @@
         <v>60</v>
       </c>
       <c r="AE193" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="194" spans="1:31" ht="21" hidden="1" x14ac:dyDescent="0.35">
@@ -29537,10 +29546,10 @@
         <v>36</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>155</v>
@@ -29549,7 +29558,7 @@
         <v>39</v>
       </c>
       <c r="G194" s="48" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>34</v>
@@ -29576,7 +29585,7 @@
       <c r="O194" s="4"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="R194" s="1" t="s">
         <v>59</v>
@@ -29604,13 +29613,13 @@
         <v>412</v>
       </c>
       <c r="Z194" s="24" t="s">
-        <v>787</v>
+        <v>873</v>
       </c>
       <c r="AA194" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="AC194" s="6">
         <v>44166</v>
@@ -29628,10 +29637,10 @@
         <v>36</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>155</v>
@@ -29640,7 +29649,7 @@
         <v>39</v>
       </c>
       <c r="G195" s="48" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>34</v>
@@ -29667,7 +29676,7 @@
       <c r="O195" s="4"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="R195" s="1" t="s">
         <v>59</v>
@@ -29695,13 +29704,13 @@
         <v>387</v>
       </c>
       <c r="Z195" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="AA195" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="AC195" s="6">
         <v>44188</v>
@@ -29710,7 +29719,7 @@
         <v>60</v>
       </c>
       <c r="AE195" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="196" spans="1:31" s="21" customFormat="1" ht="20" hidden="1" x14ac:dyDescent="0.35">
@@ -29719,13 +29728,13 @@
       </c>
       <c r="B196" s="23"/>
       <c r="C196" s="14" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D196" s="23"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="15" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>120</v>
@@ -29748,7 +29757,7 @@
       <c r="O196" s="15"/>
       <c r="P196" s="23"/>
       <c r="Q196" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="R196" s="23"/>
       <c r="S196" s="23"/>
@@ -29771,16 +29780,16 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4"/>
       <c r="F197" s="5"/>
       <c r="G197" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>34</v>
@@ -29800,7 +29809,7 @@
       <c r="O197" s="4"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
@@ -29823,16 +29832,16 @@
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>34</v>
@@ -29852,7 +29861,7 @@
       <c r="O198" s="4"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
@@ -29875,16 +29884,16 @@
       </c>
       <c r="B199" s="23"/>
       <c r="C199" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D199" s="23"/>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
       <c r="G199" s="15" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I199" s="16" t="s">
         <v>34</v>
@@ -29904,7 +29913,7 @@
       <c r="O199" s="15"/>
       <c r="P199" s="23"/>
       <c r="Q199" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -29927,16 +29936,16 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>34</v>
@@ -29956,7 +29965,7 @@
       <c r="O200" s="4"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
@@ -29979,16 +29988,16 @@
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>34</v>
@@ -30008,7 +30017,7 @@
       <c r="O201" s="4"/>
       <c r="P201" s="2"/>
       <c r="Q201" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
@@ -30031,16 +30040,16 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>34</v>
@@ -30060,7 +30069,7 @@
       <c r="O202" s="4"/>
       <c r="P202" s="2"/>
       <c r="Q202" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
@@ -30083,16 +30092,16 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="4"/>
       <c r="F203" s="5"/>
       <c r="G203" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>34</v>
@@ -30112,7 +30121,7 @@
       <c r="O203" s="4"/>
       <c r="P203" s="2"/>
       <c r="Q203" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
@@ -30131,11 +30140,11 @@
     </row>
     <row r="204" spans="1:31" s="27" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C204" s="28"/>
       <c r="D204" s="29" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F204" s="30"/>
       <c r="H204" s="30"/>
@@ -30149,11 +30158,11 @@
     </row>
     <row r="205" spans="1:31" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C205" s="34"/>
       <c r="D205" s="19" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F205" s="35"/>
       <c r="H205" s="35"/>
@@ -30173,14 +30182,41 @@
   <autoFilter ref="A1:AE205">
     <filterColumn colId="6">
       <filters>
-        <filter val="AS.5.4"/>
-        <filter val="AS.5.5"/>
+        <filter val="I.1.1"/>
+        <filter val="I.10.1"/>
+        <filter val="I.10.2"/>
+        <filter val="I.10.3"/>
+        <filter val="I.10.4"/>
+        <filter val="I.10.5"/>
+        <filter val="I.15.1"/>
+        <filter val="I.15.2"/>
+        <filter val="I.16.1"/>
+        <filter val="I.16.11"/>
+        <filter val="I.16.2"/>
+        <filter val="I.16.21"/>
+        <filter val="I.16.3"/>
+        <filter val="I.16.31"/>
+        <filter val="I.17.1"/>
+        <filter val="I.2.1"/>
+        <filter val="I.2.2"/>
+        <filter val="I.2.3"/>
+        <filter val="I.20.1"/>
+        <filter val="I.20.2"/>
+        <filter val="I.3.2"/>
+        <filter val="I.3.3"/>
+        <filter val="I.4.1"/>
+        <filter val="I.4.2"/>
+        <filter val="I.5.1"/>
+        <filter val="I.6.1"/>
+        <filter val="I.7.1"/>
+        <filter val="I.7.2"/>
+        <filter val="I.8.1"/>
+        <filter val="I.9.1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Sì"/>
-        <filter val="Sì* da modificare"/>
         <filter val="Sì* Split"/>
       </filters>
     </filterColumn>
